--- a/console/Networking/podChExcel/podMixinsXlsx/detail.xlsx
+++ b/console/Networking/podChExcel/podMixinsXlsx/detail.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\韩凯\2019.1\1.23\console_1901-24_HO-译文-提交\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12735" windowHeight="8175"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="12735" windowHeight="8145"/>
   </bookViews>
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
@@ -118,9 +113,6 @@
     <t>detail_i18nKey_16</t>
   </si>
   <si>
-    <t>Deletion Option</t>
-  </si>
-  <si>
     <t>detail_i18nKey_17</t>
   </si>
   <si>
@@ -139,9 +131,6 @@
     <t>detail_i18nKey_20</t>
   </si>
   <si>
-    <t>OK</t>
-  </si>
-  <si>
     <t>detail_i18nKey_21</t>
   </si>
   <si>
@@ -151,9 +140,6 @@
     <t>detail_i18nKey_22</t>
   </si>
   <si>
-    <t>Intranet</t>
-  </si>
-  <si>
     <t>detail_i18nKey_23</t>
   </si>
   <si>
@@ -167,9 +153,6 @@
   </si>
   <si>
     <t>detail_i18nKey_25</t>
-  </si>
-  <si>
-    <t>Help Documentation of Native Container</t>
   </si>
   <si>
     <r>
@@ -550,13 +533,29 @@
       </rPr>
       <t>IP'</t>
     </r>
+  </si>
+  <si>
+    <t>Deletion Option</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Confirm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Documentation of Native Container</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intranet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -583,6 +582,17 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -604,9 +614,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -948,17 +964,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C11" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.625" style="1"/>
     <col min="2" max="2" width="42.125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="40.625" style="1"/>
+    <col min="3" max="3" width="40.625" style="1"/>
+    <col min="4" max="4" width="40.625" style="2"/>
+    <col min="5" max="16384" width="40.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -966,7 +984,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -977,7 +995,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -988,7 +1006,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
@@ -999,7 +1017,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
@@ -1010,7 +1028,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -1021,7 +1039,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -1032,7 +1050,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
@@ -1043,7 +1061,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>16</v>
@@ -1054,7 +1072,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>18</v>
@@ -1065,7 +1083,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>20</v>
@@ -1076,7 +1094,7 @@
         <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>22</v>
@@ -1087,7 +1105,7 @@
         <v>23</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>24</v>
@@ -1098,7 +1116,7 @@
         <v>25</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>26</v>
@@ -1109,18 +1127,18 @@
         <v>27</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>30</v>
@@ -1131,29 +1149,29 @@
         <v>31</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>0</v>
@@ -1161,84 +1179,85 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>41</v>
+        <v>60</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>43</v>
+        <v>61</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>45</v>
+        <v>69</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>47</v>
+        <v>70</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>49</v>
+        <v>62</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="A1:B25" numberStoredAsText="1"/>
   </ignoredErrors>
